--- a/tests/data.gui/test/spectrophotometry/dsl.4/mixed/kev.constants.data.xlsx
+++ b/tests/data.gui/test/spectrophotometry/dsl.4/mixed/kev.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">INH</t>
   </si>
@@ -188,10 +188,13 @@
     <t xml:space="preserve">5.118408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.081701310299802</t>
+    <t xml:space="preserve">0.0817013103114522</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999384</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.999383527987892</v>
+      <c r="A2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +711,7 @@
         <v>5012</v>
       </c>
       <c r="E2" t="n">
-        <v>9687.89941679757</v>
+        <v>9687.89941679756</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>47.2157326452161</v>
+        <v>47.2157326452205</v>
       </c>
     </row>
     <row r="5">
@@ -759,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>34.5516835644266</v>
+        <v>34.5516835644337</v>
       </c>
     </row>
   </sheetData>
@@ -48254,87 +48257,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.52216114464738e-07</v>
+        <v>0.000000852216114464738</v>
       </c>
       <c r="B2" t="n">
         <v>0.000132202216114388</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4797783886954e-05</v>
+        <v>0.000014797783886954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.90315251159529e-06</v>
+        <v>0.00000190315251159529</v>
       </c>
       <c r="B3" t="n">
         <v>0.000117603152511421</v>
       </c>
       <c r="C3" t="n">
-        <v>2.9396847491271e-05</v>
+        <v>0.000029396847491271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.22363397029454e-06</v>
+        <v>0.00000322363397029453</v>
       </c>
       <c r="B4" t="n">
         <v>0.000103273633969994</v>
       </c>
       <c r="C4" t="n">
-        <v>4.37263660340775e-05</v>
+        <v>0.0000437263660340775</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.91705262745467e-06</v>
+        <v>0.00000491705262745467</v>
       </c>
       <c r="B5" t="n">
-        <v>8.93170526269851e-05</v>
+        <v>0.0000893170526269851</v>
       </c>
       <c r="C5" t="n">
-        <v>5.7682947378525e-05</v>
+        <v>0.000057682947378525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.13667001232995e-06</v>
+        <v>0.00000713667001232995</v>
       </c>
       <c r="B6" t="n">
-        <v>7.58766700116218e-05</v>
+        <v>0.0000758766700116218</v>
       </c>
       <c r="C6" t="n">
-        <v>7.11233299954392e-05</v>
+        <v>0.0000711233299954392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.00985089820855e-05</v>
+        <v>0.0000100985089820855</v>
       </c>
       <c r="B7" t="n">
-        <v>6.31885089810262e-05</v>
+        <v>0.0000631885089810262</v>
       </c>
       <c r="C7" t="n">
-        <v>8.38114910278159e-05</v>
+        <v>0.0000838114910278159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.41129968323945e-05</v>
+        <v>0.0000141129968323945</v>
       </c>
       <c r="B8" t="n">
-        <v>5.15129968308121e-05</v>
+        <v>0.0000515129968308121</v>
       </c>
       <c r="C8" t="n">
-        <v>9.5487003180393e-05</v>
+        <v>0.000095487003180393</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.9491385799892e-05</v>
+        <v>0.000019491385799892</v>
       </c>
       <c r="B9" t="n">
-        <v>4.1291385797742e-05</v>
+        <v>0.000041291385797742</v>
       </c>
       <c r="C9" t="n">
         <v>0.000105708614217719</v>
@@ -48342,10 +48345,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.66062457976358e-05</v>
+        <v>0.0000266062457976358</v>
       </c>
       <c r="B10" t="n">
-        <v>3.2706245796199e-05</v>
+        <v>0.000032706245796199</v>
       </c>
       <c r="C10" t="n">
         <v>0.000114293754231512</v>
@@ -48353,13 +48356,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.54746598523662e-05</v>
+        <v>0.0000354746598523662</v>
       </c>
       <c r="B11" t="n">
-        <v>2.59746598571548e-05</v>
+        <v>0.0000259746598571549</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00012102534021378</v>
+        <v>0.000121025340213781</v>
       </c>
     </row>
   </sheetData>
@@ -48428,7 +48431,7 @@
         <v>0.882594573104633</v>
       </c>
       <c r="E2" t="n">
-        <v>0.955408078927124</v>
+        <v>0.955408078927123</v>
       </c>
       <c r="F2" t="n">
         <v>1.02811869159483</v>
@@ -48449,7 +48452,7 @@
         <v>1.38825758040322</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45875482142928</v>
+        <v>1.45875482142929</v>
       </c>
     </row>
     <row r="3">
@@ -48463,10 +48466,10 @@
         <v>0.514756325632684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74037950214104</v>
+        <v>0.740379502141039</v>
       </c>
       <c r="E3" t="n">
-        <v>0.961836958529467</v>
+        <v>0.961836958529466</v>
       </c>
       <c r="F3" t="n">
         <v>1.17753080722292</v>
@@ -48484,10 +48487,10 @@
         <v>1.9197498837357</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05243007566484</v>
+        <v>2.05243007566483</v>
       </c>
       <c r="L3" t="n">
-        <v>2.15646426954421</v>
+        <v>2.15646426954422</v>
       </c>
     </row>
     <row r="4">
@@ -48498,34 +48501,34 @@
         <v>306</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0282933000427267</v>
+        <v>-0.0282933000427269</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0134054268953669</v>
+        <v>-0.0134054268953675</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00759192107287643</v>
+        <v>-0.00759192107287732</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00588130840517298</v>
+        <v>-0.00588130840517409</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.00526911466398317</v>
+        <v>-0.0052691146639845</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.00490845841660792</v>
+        <v>-0.00490845841660947</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000348808601643213</v>
+        <v>0.000348808601641437</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000808945168129904</v>
+        <v>0.000808945168127906</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00425758040321855</v>
+        <v>0.00425758040321655</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0137548214292826</v>
+        <v>0.0137548214292895</v>
       </c>
     </row>
     <row r="5">
@@ -48536,34 +48539,34 @@
         <v>387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0117563256326841</v>
+        <v>0.0117563256326837</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0103795021410399</v>
+        <v>0.010379502141039</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00583695852946731</v>
+        <v>0.00583695852946586</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00346919277707691</v>
+        <v>-0.00346919277707891</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00175300619728214</v>
+        <v>-0.00175300619728436</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0106621284683091</v>
+        <v>-0.0106621284683117</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0122213679743395</v>
+        <v>-0.0122213679743426</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.00325011626429705</v>
+        <v>-0.00325011626430038</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00743007566483511</v>
+        <v>0.00743007566483156</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00946426954420643</v>
+        <v>0.00946426954421797</v>
       </c>
     </row>
   </sheetData>
@@ -48632,7 +48635,7 @@
         <v>0.882594573104633</v>
       </c>
       <c r="E2" t="n">
-        <v>0.955408078927124</v>
+        <v>0.955408078927123</v>
       </c>
       <c r="F2" t="n">
         <v>1.02811869159483</v>
@@ -48653,7 +48656,7 @@
         <v>1.38825758040322</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45875482142928</v>
+        <v>1.45875482142929</v>
       </c>
     </row>
     <row r="3">
@@ -48667,10 +48670,10 @@
         <v>0.514756325632684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74037950214104</v>
+        <v>0.740379502141039</v>
       </c>
       <c r="E3" t="n">
-        <v>0.961836958529467</v>
+        <v>0.961836958529466</v>
       </c>
       <c r="F3" t="n">
         <v>1.17753080722292</v>
@@ -48688,10 +48691,10 @@
         <v>1.9197498837357</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05243007566484</v>
+        <v>2.05243007566483</v>
       </c>
       <c r="L3" t="n">
-        <v>2.15646426954421</v>
+        <v>2.15646426954422</v>
       </c>
     </row>
     <row r="4">
@@ -48702,34 +48705,34 @@
         <v>306</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0337628878791488</v>
+        <v>-0.033762887879149</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.014961413945722</v>
+        <v>-0.0149614139457227</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00788361482126317</v>
+        <v>-0.00788361482126409</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00568791915393905</v>
+        <v>-0.00568791915394013</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0047641181410336</v>
+        <v>-0.00476411814103481</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0041667728494125</v>
+        <v>-0.00416677284941381</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000280167551520653</v>
+        <v>0.000280167551519227</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000614699975782602</v>
+        <v>0.000614699975781083</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00307628641851051</v>
+        <v>0.00307628641850907</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0095189075635174</v>
+        <v>0.00951890756352216</v>
       </c>
     </row>
     <row r="5">
@@ -48740,34 +48743,34 @@
         <v>387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0233724167647796</v>
+        <v>0.0233724167647787</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0142184960836163</v>
+        <v>0.0142184960836151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00610560515634656</v>
+        <v>0.00610560515634505</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00293750446831237</v>
+        <v>-0.00293750446831407</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00126388334339015</v>
+        <v>-0.00126388334339175</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.00669731687707855</v>
+        <v>-0.00669731687708022</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.00688915894833116</v>
+        <v>-0.00688915894833291</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.00169012806255697</v>
+        <v>-0.0016901280625587</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0036332888336602</v>
+        <v>0.00363328883365846</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00440813672296527</v>
+        <v>0.00440813672297065</v>
       </c>
     </row>
   </sheetData>
